--- a/Git_BOSS통합버전+아웃룩일정추출/PUS1_Summary.xlsx
+++ b/Git_BOSS통합버전+아웃룩일정추출/PUS1_Summary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1795" documentId="13_ncr:40009_{F731AD81-B5B6-4852-B2E1-7FC025D61C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F59F697-A4E1-4CDF-9C10-CA39E597B4C6}"/>
+  <xr:revisionPtr revIDLastSave="1801" documentId="13_ncr:40009_{F731AD81-B5B6-4852-B2E1-7FC025D61C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32179998-E2A4-415B-8F52-B497E5C5B7D4}"/>
   <bookViews>
-    <workbookView xWindow="38595" yWindow="2205" windowWidth="20310" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="35280" yWindow="1440" windowWidth="27000" windowHeight="14715" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LawData" sheetId="4" r:id="rId1"/>
@@ -2818,7 +2818,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AJ1" sqref="AJ1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -22317,6 +22317,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="A80:I81"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
@@ -22332,11 +22337,6 @@
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="F44:G44"/>
     <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="A80:I81"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22453,7 +22453,7 @@
   <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/Git_BOSS통합버전+아웃룩일정추출/PUS1_Summary.xlsx
+++ b/Git_BOSS통합버전+아웃룩일정추출/PUS1_Summary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1801" documentId="13_ncr:40009_{F731AD81-B5B6-4852-B2E1-7FC025D61C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32179998-E2A4-415B-8F52-B497E5C5B7D4}"/>
+  <xr:revisionPtr revIDLastSave="1873" documentId="13_ncr:40009_{F731AD81-B5B6-4852-B2E1-7FC025D61C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CD11F28-BA27-4CE1-92E8-B9607F229230}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="35280" yWindow="1440" windowWidth="27000" windowHeight="14715" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4224" yWindow="4224" windowWidth="20304" windowHeight="12780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LawData" sheetId="4" r:id="rId1"/>

--- a/Git_BOSS통합버전+아웃룩일정추출/PUS1_Summary.xlsx
+++ b/Git_BOSS통합버전+아웃룩일정추출/PUS1_Summary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1873" documentId="13_ncr:40009_{F731AD81-B5B6-4852-B2E1-7FC025D61C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CD11F28-BA27-4CE1-92E8-B9607F229230}"/>
+  <xr:revisionPtr revIDLastSave="1885" documentId="13_ncr:40009_{F731AD81-B5B6-4852-B2E1-7FC025D61C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE299F99-4A38-4D73-8B5F-E2D28FC9AAD9}"/>
   <bookViews>
-    <workbookView xWindow="4224" yWindow="4224" windowWidth="20304" windowHeight="12780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="20304" windowHeight="12780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LawData" sheetId="4" r:id="rId1"/>

--- a/Git_BOSS통합버전+아웃룩일정추출/PUS1_Summary.xlsx
+++ b/Git_BOSS통합버전+아웃룩일정추출/PUS1_Summary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1885" documentId="13_ncr:40009_{F731AD81-B5B6-4852-B2E1-7FC025D61C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE299F99-4A38-4D73-8B5F-E2D28FC9AAD9}"/>
+  <xr:revisionPtr revIDLastSave="1897" documentId="13_ncr:40009_{F731AD81-B5B6-4852-B2E1-7FC025D61C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{097912B9-9E14-40B9-B8D9-DFFAB90E4111}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="20304" windowHeight="12780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3072" yWindow="3072" windowWidth="20304" windowHeight="12780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LawData" sheetId="4" r:id="rId1"/>

--- a/Git_BOSS통합버전+아웃룩일정추출/PUS1_Summary.xlsx
+++ b/Git_BOSS통합버전+아웃룩일정추출/PUS1_Summary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1897" documentId="13_ncr:40009_{F731AD81-B5B6-4852-B2E1-7FC025D61C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{097912B9-9E14-40B9-B8D9-DFFAB90E4111}"/>
+  <xr:revisionPtr revIDLastSave="1921" documentId="13_ncr:40009_{F731AD81-B5B6-4852-B2E1-7FC025D61C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2F18739-824B-4FE9-9755-152070BA5BED}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="3072" windowWidth="20304" windowHeight="12780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="49890" yWindow="5460" windowWidth="20310" windowHeight="12780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LawData" sheetId="4" r:id="rId1"/>

--- a/Git_BOSS통합버전+아웃룩일정추출/PUS1_Summary.xlsx
+++ b/Git_BOSS통합버전+아웃룩일정추출/PUS1_Summary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1921" documentId="13_ncr:40009_{F731AD81-B5B6-4852-B2E1-7FC025D61C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2F18739-824B-4FE9-9755-152070BA5BED}"/>
+  <xr:revisionPtr revIDLastSave="1934" documentId="13_ncr:40009_{F731AD81-B5B6-4852-B2E1-7FC025D61C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72E4F7B7-FA99-4B9C-A668-CA5A399B8419}"/>
   <bookViews>
-    <workbookView xWindow="49890" yWindow="5460" windowWidth="20310" windowHeight="12780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36855" yWindow="4695" windowWidth="20310" windowHeight="12780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LawData" sheetId="4" r:id="rId1"/>
@@ -22317,11 +22317,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="A80:I81"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
@@ -22337,6 +22332,11 @@
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="F44:G44"/>
     <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="A80:I81"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22452,8 +22452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -23470,7 +23470,7 @@
       <c r="Y19" s="37"/>
       <c r="Z19" s="36"/>
     </row>
-    <row r="20" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="67" t="s">
         <v>108</v>
       </c>
@@ -23504,7 +23504,7 @@
       <c r="Y20" s="37"/>
       <c r="Z20" s="37"/>
     </row>
-    <row r="21" spans="1:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:26" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="70"/>
       <c r="B21" s="71"/>
       <c r="C21" s="71"/>

--- a/Git_BOSS통합버전+아웃룩일정추출/PUS1_Summary.xlsx
+++ b/Git_BOSS통합버전+아웃룩일정추출/PUS1_Summary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1934" documentId="13_ncr:40009_{F731AD81-B5B6-4852-B2E1-7FC025D61C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72E4F7B7-FA99-4B9C-A668-CA5A399B8419}"/>
+  <xr:revisionPtr revIDLastSave="1940" documentId="13_ncr:40009_{F731AD81-B5B6-4852-B2E1-7FC025D61C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCC2C385-1403-49CD-96A7-C5F73C03F005}"/>
   <bookViews>
-    <workbookView xWindow="36855" yWindow="4695" windowWidth="20310" windowHeight="12780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38505" yWindow="4395" windowWidth="20310" windowHeight="12780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LawData" sheetId="4" r:id="rId1"/>
@@ -22317,6 +22317,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="A80:I81"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
@@ -22332,11 +22337,6 @@
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="F44:G44"/>
     <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="A80:I81"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Git_BOSS통합버전+아웃룩일정추출/PUS1_Summary.xlsx
+++ b/Git_BOSS통합버전+아웃룩일정추출/PUS1_Summary.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1940" documentId="13_ncr:40009_{F731AD81-B5B6-4852-B2E1-7FC025D61C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCC2C385-1403-49CD-96A7-C5F73C03F005}"/>
+  <xr:revisionPtr revIDLastSave="2002" documentId="13_ncr:40009_{F731AD81-B5B6-4852-B2E1-7FC025D61C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B37C1660-0DFA-4F5E-A29C-3D057857F41D}"/>
   <bookViews>
-    <workbookView xWindow="38505" yWindow="4395" windowWidth="20310" windowHeight="12780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33645" yWindow="2370" windowWidth="38700" windowHeight="15825" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LawData" sheetId="4" r:id="rId1"/>
@@ -20212,7 +20212,7 @@
   <dimension ref="A1:Q81"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -20228,7 +20228,17 @@
       <c r="L1" s="44"/>
       <c r="M1" s="44"/>
     </row>
-    <row r="3" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+    </row>
     <row r="4" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
         <v>16</v>
@@ -20821,7 +20831,17 @@
       <c r="H21" s="71"/>
       <c r="I21" s="72"/>
     </row>
-    <row r="23" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="23" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+    </row>
     <row r="24" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="14" t="s">
         <v>16</v>
@@ -21319,7 +21339,17 @@
       <c r="H41" s="71"/>
       <c r="I41" s="72"/>
     </row>
-    <row r="43" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="43" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D43">
+        <v>7</v>
+      </c>
+      <c r="F43">
+        <v>8</v>
+      </c>
+      <c r="H43">
+        <v>9</v>
+      </c>
+    </row>
     <row r="44" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="14" t="s">
         <v>16</v>
@@ -21817,7 +21847,17 @@
       <c r="H61" s="71"/>
       <c r="I61" s="72"/>
     </row>
-    <row r="63" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="63" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D63">
+        <v>10</v>
+      </c>
+      <c r="F63">
+        <v>11</v>
+      </c>
+      <c r="H63">
+        <v>12</v>
+      </c>
+    </row>
     <row r="64" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A64" s="14" t="s">
         <v>16</v>
@@ -22317,11 +22357,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="A80:I81"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
@@ -22337,6 +22372,11 @@
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="F44:G44"/>
     <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="A80:I81"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22452,8 +22492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -22469,13 +22509,13 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.4">
       <c r="K1" s="44">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L1" s="44">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M1" s="44">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -22522,17 +22562,17 @@
       </c>
       <c r="D4" s="65" cm="1">
         <f t="array" ref="D4">_xlfn.SWITCH(K1,1,K4,4,K5,7,K6,10,K7)</f>
-        <v>45017</v>
+        <v>45200</v>
       </c>
       <c r="E4" s="66"/>
       <c r="F4" s="65" cm="1">
         <f t="array" ref="F4">_xlfn.SWITCH(L1,2,L4,5,L5,8,L6,11,L7)</f>
-        <v>45047</v>
+        <v>45231</v>
       </c>
       <c r="G4" s="66"/>
       <c r="H4" s="65" cm="1">
         <f t="array" ref="H4">_xlfn.SWITCH(M1,3,M4,6,M5,9,M6,12,M7)</f>
-        <v>45107</v>
+        <v>45261</v>
       </c>
       <c r="I4" s="66"/>
       <c r="K4" s="58">
@@ -22644,7 +22684,7 @@
       </c>
       <c r="D6" s="46" cm="1">
         <f t="array" ref="D6">_xlfn.SWITCH($K$1,1,1,4,4,7,7,10,10)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E6" s="46" cm="1">
         <f t="array" ref="E6">_xlfn.SWITCH($K$1,1,SummaryTable_Full!E6,4,SummaryTable_Full!E26,7,SummaryTable_Full!E46,10,SummaryTable_Full!E66)</f>
@@ -22652,7 +22692,7 @@
       </c>
       <c r="F6" s="46" cm="1">
         <f t="array" ref="F6">_xlfn.SWITCH($L$1,2,2,5,5,8,8,11,11)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G6" s="46" cm="1">
         <f t="array" ref="G6">_xlfn.SWITCH($L$1,2,SummaryTable_Full!G6,5,SummaryTable_Full!G26,8,SummaryTable_Full!G46,11,SummaryTable_Full!G66)</f>
@@ -22660,7 +22700,7 @@
       </c>
       <c r="H6" s="47" cm="1">
         <f t="array" ref="H6">_xlfn.SWITCH($M$1,3,3,6,6,9,9,12,12)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I6" s="46" cm="1">
         <f t="array" ref="I6">_xlfn.SWITCH($M$1,3,SummaryTable_Full!I6,6,SummaryTable_Full!I26,9,SummaryTable_Full!I46,12,SummaryTable_Full!I66)</f>
@@ -22715,7 +22755,7 @@
       </c>
       <c r="D7" s="46" cm="1">
         <f t="array" ref="D7">_xlfn.SWITCH($K$1,1,4,4,7,7,10,10)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E7" s="46" cm="1">
         <f t="array" ref="E7">_xlfn.SWITCH($K$1,1,SummaryTable_Full!E7,4,SummaryTable_Full!E27,7,SummaryTable_Full!E47,10,SummaryTable_Full!E67)</f>
@@ -22723,7 +22763,7 @@
       </c>
       <c r="F7" s="46" cm="1">
         <f t="array" ref="F7">_xlfn.SWITCH($L$1,2,2,5,5,8,8,11,11)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G7" s="46" cm="1">
         <f t="array" ref="G7">_xlfn.SWITCH($L$1,2,SummaryTable_Full!G7,5,SummaryTable_Full!G27,8,SummaryTable_Full!G47,11,SummaryTable_Full!G67)</f>
@@ -22731,7 +22771,7 @@
       </c>
       <c r="H7" s="47" cm="1">
         <f t="array" ref="H7">_xlfn.SWITCH($M$1,3,3,6,6,9,9,12,12)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I7" s="46" cm="1">
         <f t="array" ref="I7">_xlfn.SWITCH($M$1,3,SummaryTable_Full!I7,6,SummaryTable_Full!I27,9,SummaryTable_Full!I47,12,SummaryTable_Full!I67)</f>
@@ -22787,7 +22827,7 @@
       </c>
       <c r="D8" s="47" cm="1">
         <f t="array" ref="D8">_xlfn.SWITCH($K$1,1,1,4,2,7,3,10,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8" s="46" cm="1">
         <f t="array" ref="E8">_xlfn.SWITCH($K$1,1,SummaryTable_Full!E8,4,SummaryTable_Full!E28,7,SummaryTable_Full!E48,10,SummaryTable_Full!E68)</f>
@@ -22795,7 +22835,7 @@
       </c>
       <c r="F8" s="47" cm="1">
         <f t="array" ref="F8">_xlfn.SWITCH($L$1,2,1,5,2,8,3,11,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8" s="46" cm="1">
         <f t="array" ref="G8">_xlfn.SWITCH($L$1,2,SummaryTable_Full!G8,5,SummaryTable_Full!G28,8,SummaryTable_Full!G48,11,SummaryTable_Full!G68)</f>
@@ -22803,7 +22843,7 @@
       </c>
       <c r="H8" s="47" cm="1">
         <f t="array" ref="H8">_xlfn.SWITCH($M$1,3,1,6,2,9,3,12,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8" s="46" cm="1">
         <f t="array" ref="I8">_xlfn.SWITCH($M$1,3,SummaryTable_Full!I8,6,SummaryTable_Full!I28,9,SummaryTable_Full!I48,12,SummaryTable_Full!I68)</f>
@@ -22842,7 +22882,7 @@
       </c>
       <c r="D9" s="47" cm="1">
         <f t="array" ref="D9">_xlfn.SWITCH($K$1,1,1,4,2,7,3,10,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9" s="46" cm="1">
         <f t="array" ref="E9">_xlfn.SWITCH($K$1,1,SummaryTable_Full!E9,4,SummaryTable_Full!E29,7,SummaryTable_Full!E49,10,SummaryTable_Full!E69)</f>
@@ -22850,7 +22890,7 @@
       </c>
       <c r="F9" s="47" cm="1">
         <f t="array" ref="F9">_xlfn.SWITCH($L$1,2,1,5,2,8,3,11,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9" s="46" cm="1">
         <f t="array" ref="G9">_xlfn.SWITCH($L$1,2,SummaryTable_Full!G9,5,SummaryTable_Full!G29,8,SummaryTable_Full!G49,11,SummaryTable_Full!G69)</f>
@@ -22858,7 +22898,7 @@
       </c>
       <c r="H9" s="47" cm="1">
         <f t="array" ref="H9">_xlfn.SWITCH($M$1,3,1,6,2,9,3,12,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I9" s="46" cm="1">
         <f t="array" ref="I9">_xlfn.SWITCH($M$1,3,SummaryTable_Full!I9,6,SummaryTable_Full!I29,9,SummaryTable_Full!I49,12,SummaryTable_Full!I69)</f>
@@ -22907,7 +22947,7 @@
       </c>
       <c r="D10" s="46" cm="1">
         <f t="array" ref="D10">_xlfn.SWITCH($K$1,1,1,4,4,7,7,10,10)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E10" s="46" cm="1">
         <f t="array" ref="E10">_xlfn.SWITCH($K$1,1,SummaryTable_Full!E10,4,SummaryTable_Full!E30,7,SummaryTable_Full!E50,10,SummaryTable_Full!E70)</f>
@@ -22915,15 +22955,15 @@
       </c>
       <c r="F10" s="46" cm="1">
         <f t="array" ref="F10">_xlfn.SWITCH($L$1,2,2,5,5,8,8,11,11)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G10" s="46" cm="1">
         <f t="array" ref="G10">_xlfn.SWITCH($L$1,2,SummaryTable_Full!G10,5,SummaryTable_Full!G30,8,SummaryTable_Full!G50,11,SummaryTable_Full!G70)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="47" cm="1">
         <f t="array" ref="H10">_xlfn.SWITCH($M$1,3,3,6,6,9,9,12,12)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I10" s="46" cm="1">
         <f t="array" ref="I10">_xlfn.SWITCH($M$1,3,SummaryTable_Full!I10,6,SummaryTable_Full!I30,9,SummaryTable_Full!I50,12,SummaryTable_Full!I70)</f>
@@ -22973,7 +23013,7 @@
       </c>
       <c r="D11" s="47" cm="1">
         <f t="array" ref="D11">_xlfn.SWITCH($K$1,1,1,4,1,7,2,10,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="46" cm="1">
         <f t="array" ref="E11">_xlfn.SWITCH($K$1,1,SummaryTable_Full!E11,4,SummaryTable_Full!E31,7,SummaryTable_Full!E51,10,SummaryTable_Full!E71)</f>
@@ -22981,7 +23021,7 @@
       </c>
       <c r="F11" s="47" cm="1">
         <f t="array" ref="F11">_xlfn.SWITCH($L$1,2,1,5,1,8,2,11,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="46" cm="1">
         <f t="array" ref="G11">_xlfn.SWITCH($L$1,2,SummaryTable_Full!G11,5,SummaryTable_Full!G31,8,SummaryTable_Full!G51,11,SummaryTable_Full!G71)</f>
@@ -22989,7 +23029,7 @@
       </c>
       <c r="H11" s="47" cm="1">
         <f t="array" ref="H11">_xlfn.SWITCH($M$1,3,1,6,1,9,2,12,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="46" cm="1">
         <f t="array" ref="I11">_xlfn.SWITCH($M$1,3,SummaryTable_Full!I11,6,SummaryTable_Full!I31,9,SummaryTable_Full!I51,12,SummaryTable_Full!I71)</f>
@@ -23039,7 +23079,7 @@
       </c>
       <c r="D12" s="47" cm="1">
         <f t="array" ref="D12">_xlfn.SWITCH($K$1,1,8,4,32,7,56,10,80)</f>
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="E12" s="46" cm="1">
         <f t="array" ref="E12">_xlfn.SWITCH($K$1,1,SummaryTable_Full!E12,4,SummaryTable_Full!E32,7,SummaryTable_Full!E52,10,SummaryTable_Full!E72)</f>
@@ -23047,7 +23087,7 @@
       </c>
       <c r="F12" s="47" cm="1">
         <f t="array" ref="F12">_xlfn.SWITCH($L$1,2,16,5,40,8,64,11,88)</f>
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="G12" s="46" cm="1">
         <f t="array" ref="G12">_xlfn.SWITCH($L$1,2,SummaryTable_Full!G12,5,SummaryTable_Full!G32,8,SummaryTable_Full!G52,11,SummaryTable_Full!G72)</f>
@@ -23055,7 +23095,7 @@
       </c>
       <c r="H12" s="47" cm="1">
         <f t="array" ref="H12">_xlfn.SWITCH($M$1,3,24,6,48,9,72,12,96)</f>
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="I12" s="46" cm="1">
         <f t="array" ref="I12">_xlfn.SWITCH($M$1,3,SummaryTable_Full!I12,6,SummaryTable_Full!I32,9,SummaryTable_Full!I52,12,SummaryTable_Full!I72)</f>
@@ -23105,7 +23145,7 @@
       </c>
       <c r="D13" s="47" cm="1">
         <f t="array" ref="D13">_xlfn.SWITCH($K$1,1,8,4,32,7,56,10,80)</f>
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="E13" s="46" cm="1">
         <f t="array" ref="E13">_xlfn.SWITCH($K$1,1,SummaryTable_Full!E13,4,SummaryTable_Full!E33,7,SummaryTable_Full!E53,10,SummaryTable_Full!E73)</f>
@@ -23113,7 +23153,7 @@
       </c>
       <c r="F13" s="47" cm="1">
         <f t="array" ref="F13">_xlfn.SWITCH($L$1,2,16,5,40,8,64,11,88)</f>
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="G13" s="46" cm="1">
         <f t="array" ref="G13">_xlfn.SWITCH($L$1,2,SummaryTable_Full!G13,5,SummaryTable_Full!G33,8,SummaryTable_Full!G53,11,SummaryTable_Full!G73)</f>
@@ -23121,7 +23161,7 @@
       </c>
       <c r="H13" s="47" cm="1">
         <f t="array" ref="H13">_xlfn.SWITCH($M$1,3,24,6,48,9,72,12,96)</f>
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="I13" s="46" cm="1">
         <f t="array" ref="I13">_xlfn.SWITCH($M$1,3,SummaryTable_Full!I13,6,SummaryTable_Full!I33,9,SummaryTable_Full!I53,12,SummaryTable_Full!I73)</f>
@@ -23222,7 +23262,7 @@
       </c>
       <c r="D15" s="47" cm="1">
         <f t="array" ref="D15">_xlfn.SWITCH($K$1,1,1,4,1,7,2,10,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="46" cm="1">
         <f t="array" ref="E15">_xlfn.SWITCH($K$1,1,SummaryTable_Full!E15,4,SummaryTable_Full!E35,7,SummaryTable_Full!E55,10,SummaryTable_Full!E75)</f>
@@ -23230,7 +23270,7 @@
       </c>
       <c r="F15" s="47" cm="1">
         <f t="array" ref="F15">_xlfn.SWITCH($L$1,2,1,5,1,8,2,11,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="46" cm="1">
         <f t="array" ref="G15">_xlfn.SWITCH($L$1,2,SummaryTable_Full!G15,5,SummaryTable_Full!G35,8,SummaryTable_Full!G55,11,SummaryTable_Full!G75)</f>
@@ -23238,7 +23278,7 @@
       </c>
       <c r="H15" s="47" cm="1">
         <f t="array" ref="H15">_xlfn.SWITCH($M$1,3,1,6,1,9,2,12,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" s="46" cm="1">
         <f t="array" ref="I15">_xlfn.SWITCH($M$1,3,SummaryTable_Full!I15,6,SummaryTable_Full!I35,9,SummaryTable_Full!I55,12,SummaryTable_Full!I75)</f>
@@ -23282,7 +23322,7 @@
       </c>
       <c r="D16" s="46" cm="1">
         <f t="array" ref="D16">_xlfn.SWITCH($K$1,1,1,4,4,7,7,10,10)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E16" s="46" cm="1">
         <f t="array" ref="E16">_xlfn.SWITCH($K$1,1,SummaryTable_Full!E16,4,SummaryTable_Full!E36,7,SummaryTable_Full!E56,10,SummaryTable_Full!E76)</f>
@@ -23290,7 +23330,7 @@
       </c>
       <c r="F16" s="46" cm="1">
         <f t="array" ref="F16">_xlfn.SWITCH($L$1,2,2,5,5,8,8,11,11)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G16" s="46" cm="1">
         <f t="array" ref="G16">_xlfn.SWITCH($L$1,2,SummaryTable_Full!G16,5,SummaryTable_Full!G36,8,SummaryTable_Full!G56,11,SummaryTable_Full!G76)</f>
@@ -23298,7 +23338,7 @@
       </c>
       <c r="H16" s="47" cm="1">
         <f t="array" ref="H16">_xlfn.SWITCH($M$1,3,3,6,6,9,9,12,12)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I16" s="46" cm="1">
         <f t="array" ref="I16">_xlfn.SWITCH($M$1,3,SummaryTable_Full!I16,6,SummaryTable_Full!I36,9,SummaryTable_Full!I56,12,SummaryTable_Full!I76)</f>
@@ -23338,7 +23378,7 @@
       </c>
       <c r="D17" s="46" cm="1">
         <f t="array" ref="D17">_xlfn.SWITCH($K$1,1,1,4,4,7,7,10,10)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E17" s="46" cm="1">
         <f t="array" ref="E17">_xlfn.SWITCH($K$1,1,SummaryTable_Full!E17,4,SummaryTable_Full!E37,7,SummaryTable_Full!E57,10,SummaryTable_Full!E77)</f>
@@ -23346,7 +23386,7 @@
       </c>
       <c r="F17" s="46" cm="1">
         <f t="array" ref="F17">_xlfn.SWITCH($L$1,2,2,5,5,8,8,11,11)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G17" s="46" cm="1">
         <f t="array" ref="G17">_xlfn.SWITCH($L$1,2,SummaryTable_Full!G17,5,SummaryTable_Full!G37,8,SummaryTable_Full!G57,11,SummaryTable_Full!G77)</f>
@@ -23354,7 +23394,7 @@
       </c>
       <c r="H17" s="47" cm="1">
         <f t="array" ref="H17">_xlfn.SWITCH($M$1,3,3,6,6,9,9,12,12)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I17" s="46" cm="1">
         <f t="array" ref="I17">_xlfn.SWITCH($M$1,3,SummaryTable_Full!I17,6,SummaryTable_Full!I37,9,SummaryTable_Full!I57,12,SummaryTable_Full!I77)</f>
@@ -23394,7 +23434,7 @@
       </c>
       <c r="D18" s="46" cm="1">
         <f t="array" ref="D18">_xlfn.SWITCH($K$1,1,1,4,4,7,7,10,10)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E18" s="46" cm="1">
         <f t="array" ref="E18">_xlfn.SWITCH($K$1,1,SummaryTable_Full!E18,4,SummaryTable_Full!E38,7,SummaryTable_Full!E58,10,SummaryTable_Full!E78)</f>
@@ -23402,7 +23442,7 @@
       </c>
       <c r="F18" s="46" cm="1">
         <f t="array" ref="F18">_xlfn.SWITCH($L$1,2,2,5,5,8,8,11,11)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G18" s="46" cm="1">
         <f t="array" ref="G18">_xlfn.SWITCH($L$1,2,SummaryTable_Full!G18,5,SummaryTable_Full!G38,8,SummaryTable_Full!G58,11,SummaryTable_Full!G78)</f>
@@ -23410,7 +23450,7 @@
       </c>
       <c r="H18" s="47" cm="1">
         <f t="array" ref="H18">_xlfn.SWITCH($M$1,3,3,6,6,9,9,12,12)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I18" s="46" cm="1">
         <f t="array" ref="I18">_xlfn.SWITCH($M$1,3,SummaryTable_Full!I18,6,SummaryTable_Full!I38,9,SummaryTable_Full!I58,12,SummaryTable_Full!I78)</f>

--- a/Git_BOSS통합버전+아웃룩일정추출/PUS1_Summary.xlsx
+++ b/Git_BOSS통합버전+아웃룩일정추출/PUS1_Summary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="2002" documentId="13_ncr:40009_{F731AD81-B5B6-4852-B2E1-7FC025D61C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B37C1660-0DFA-4F5E-A29C-3D057857F41D}"/>
+  <xr:revisionPtr revIDLastSave="2008" documentId="13_ncr:40009_{F731AD81-B5B6-4852-B2E1-7FC025D61C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67B323AA-7666-4EDA-87CD-A9D6D3D157CD}"/>
   <bookViews>
-    <workbookView xWindow="33645" yWindow="2370" windowWidth="38700" windowHeight="15825" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2616" yWindow="4668" windowWidth="20304" windowHeight="12780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LawData" sheetId="4" r:id="rId1"/>
@@ -22357,6 +22357,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="A80:I81"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
@@ -22372,11 +22377,6 @@
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="F44:G44"/>
     <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="A80:I81"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
